--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/kdr001_v1.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/kdr001_v1.xlsx
@@ -30,6 +30,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -50,17 +51,20 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -444,7 +448,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,11 +525,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,35 +537,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="18" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -577,11 +581,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -589,11 +593,11 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="23" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,23 +617,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="18" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -649,7 +653,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="24" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -665,7 +669,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -673,7 +677,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -794,10 +798,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -877,8 +877,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="標準 17" xfId="20"/>
-    <cellStyle name="標準 10" xfId="21"/>
+    <cellStyle name="標準 10" xfId="20"/>
+    <cellStyle name="標準 17" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -947,16 +947,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>563040</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>273240</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -965,8 +965,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7485120" y="598320"/>
-          <a:ext cx="339480" cy="265320"/>
+          <a:off x="6455160" y="585720"/>
+          <a:ext cx="339480" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -998,11 +998,11 @@
   </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -1588,7 +1588,7 @@
       <c r="F24" s="87"/>
       <c r="G24" s="87"/>
       <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="72"/>
       <c r="K24" s="38"/>
       <c r="L24" s="39"/>
@@ -1613,7 +1613,7 @@
       <c r="F25" s="87"/>
       <c r="G25" s="87"/>
       <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
       <c r="L25" s="65"/>
@@ -1638,7 +1638,7 @@
       <c r="F26" s="70"/>
       <c r="G26" s="70"/>
       <c r="H26" s="70"/>
-      <c r="I26" s="89"/>
+      <c r="I26" s="88"/>
       <c r="J26" s="72"/>
       <c r="K26" s="38"/>
       <c r="L26" s="39"/>
@@ -1684,7 +1684,7 @@
       <c r="B28" s="58"/>
       <c r="C28" s="67"/>
       <c r="D28" s="68"/>
-      <c r="E28" s="89"/>
+      <c r="E28" s="88"/>
       <c r="F28" s="70"/>
       <c r="G28" s="70"/>
       <c r="H28" s="70"/>
@@ -1710,12 +1710,12 @@
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
       <c r="E29" s="74"/>
-      <c r="F29" s="90"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="61"/>
       <c r="H29" s="61"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
       <c r="L29" s="65"/>
       <c r="M29" s="65"/>
       <c r="N29" s="65"/>
@@ -1735,12 +1735,12 @@
       <c r="C30" s="67"/>
       <c r="D30" s="68"/>
       <c r="E30" s="84"/>
-      <c r="F30" s="94"/>
+      <c r="F30" s="93"/>
       <c r="G30" s="70"/>
       <c r="H30" s="70"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="97"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="96"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
       <c r="N30" s="39"/>
@@ -1760,12 +1760,12 @@
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
       <c r="E31" s="74"/>
-      <c r="F31" s="90"/>
+      <c r="F31" s="89"/>
       <c r="G31" s="61"/>
       <c r="H31" s="61"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
       <c r="L31" s="65"/>
       <c r="M31" s="65"/>
       <c r="N31" s="65"/>
@@ -1780,17 +1780,17 @@
       <c r="W31" s="66"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="67"/>
       <c r="D32" s="68"/>
       <c r="E32" s="84"/>
-      <c r="F32" s="94"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="96"/>
       <c r="L32" s="39"/>
       <c r="M32" s="39"/>
       <c r="N32" s="39"/>
@@ -1805,79 +1805,79 @@
       <c r="W32" s="40"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="99"/>
+      <c r="V33" s="99"/>
+      <c r="W33" s="99"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="101"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="100"/>
-      <c r="V34" s="100"/>
-      <c r="W34" s="100"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="101"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
-      <c r="U35" s="105"/>
-      <c r="V35" s="105"/>
-      <c r="W35" s="105"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/kdr001_v1.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/kdr001_v1.xlsx
@@ -17,6 +17,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">`</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -105,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="47">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -151,13 +159,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
       <top/>
       <bottom style="medium"/>
       <diagonal/>
@@ -212,6 +213,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right/>
       <top/>
@@ -233,13 +241,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="dotted"/>
       <top style="thin"/>
@@ -261,6 +262,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
@@ -303,6 +311,68 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted">
+        <color rgb="FF2A6099"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF2A6099"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF2A6099"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -310,23 +380,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="dotted"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="dotted"/>
       <right style="dotted"/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="dotted"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dotted"/>
-      <right style="dotted"/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -338,31 +401,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="dotted"/>
       <top/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -407,15 +449,8 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,8 +482,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="113">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,7 +532,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,6 +540,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -521,7 +564,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,11 +572,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,11 +584,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,11 +604,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="18" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,6 +618,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="19" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -613,15 +656,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -633,11 +676,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="18" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="31" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -649,139 +700,195 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="24" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="33" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="34" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="35" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="24" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -789,63 +896,27 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -853,24 +924,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -879,6 +950,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="標準 10" xfId="20"/>
     <cellStyle name="標準 17" xfId="21"/>
+    <cellStyle name="Normal" xfId="22"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -904,7 +976,7 @@
       <rgbColor rgb="FFDDEBF7"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -954,9 +1026,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>482760</xdr:colOff>
+      <xdr:colOff>482400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -965,8 +1037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6455160" y="585720"/>
-          <a:ext cx="339480" cy="264600"/>
+          <a:off x="6467760" y="585720"/>
+          <a:ext cx="339120" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -998,11 +1070,11 @@
   </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -1183,288 +1255,290 @@
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="25"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="40"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="54"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="34"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="54"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="54"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="66"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="74"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="40"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
       <c r="K19" s="30"/>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
@@ -1480,41 +1554,41 @@
       <c r="W19" s="32"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="62"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="70"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="76"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="84"/>
       <c r="K21" s="30"/>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
@@ -1530,141 +1604,141 @@
       <c r="W21" s="32"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="40"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="74"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="40"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="66"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="74"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="40"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="76"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="84"/>
       <c r="K27" s="30"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
@@ -1680,207 +1754,207 @@
       <c r="W27" s="32"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="40"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="66"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="74"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="40"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="41"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="66"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="74"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="97"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="40"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="99"/>
-      <c r="U33" s="99"/>
-      <c r="V33" s="99"/>
-      <c r="W33" s="99"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="99"/>
-      <c r="U34" s="99"/>
-      <c r="V34" s="99"/>
-      <c r="W34" s="99"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="112"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="112"/>
+      <c r="S35" s="112"/>
+      <c r="T35" s="112"/>
+      <c r="U35" s="112"/>
+      <c r="V35" s="112"/>
+      <c r="W35" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="A2:K2"/>
@@ -1889,6 +1963,8 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="F11:H12"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C23:D23"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/kdr001_v1.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/kdr001_v1.xlsx
@@ -474,6 +474,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,12 +486,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -496,26 +496,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -564,11 +556,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="9" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,35 +568,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="17" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -620,15 +612,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="19" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,11 +628,11 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="23" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="23" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,7 +648,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -664,27 +656,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="15" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="31" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="14" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,7 +692,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="24" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -716,31 +708,31 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="33" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="34" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="35" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="33" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="35" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -748,7 +740,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="39" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="39" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,6 +861,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -948,9 +944,9 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="標準 10" xfId="20"/>
-    <cellStyle name="標準 17" xfId="21"/>
-    <cellStyle name="Normal" xfId="22"/>
+    <cellStyle name="Normal" xfId="20"/>
+    <cellStyle name="標準 10" xfId="21"/>
+    <cellStyle name="標準 17" xfId="22"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1026,9 +1022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>482400</xdr:colOff>
+      <xdr:colOff>482040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1037,8 +1033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467760" y="585720"/>
-          <a:ext cx="339120" cy="264240"/>
+          <a:off x="6473880" y="585720"/>
+          <a:ext cx="338760" cy="263880"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1070,11 +1066,11 @@
   </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13:H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -1088,875 +1084,839 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="41"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="41"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="52"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="32"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="41"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="52"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="50"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="56"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="74"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="72"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="41"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="32"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="70"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="68"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="32"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="41"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="74"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="72"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="41"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="74"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="72"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="41"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="32"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="41"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="39"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="74"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="72"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="41"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="39"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="74"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="72"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="41"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="39"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="106"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="106"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="106"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
+      <c r="W33" s="106"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="106"/>
+      <c r="W34" s="106"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="112"/>
-      <c r="U35" s="112"/>
-      <c r="V35" s="112"/>
-      <c r="W35" s="112"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="L1:W3"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="E4:I4"/>
